--- a/biology/Botanique/Cryosophila/Cryosophila.xlsx
+++ b/biology/Botanique/Cryosophila/Cryosophila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryosophila est un genre de palmiers de la famille des Arecaceae. Il contient les espèces suivantes.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Coryphoideae
-Tribu des Cryosophileae [2]
+Tribu des Cryosophileae 
 Le genre partage cette tribu avec 10 autres genres qui sont :
 Schippia, Trithrinax, Sabinaria, Itaya, Chelyocarpus, Thrinax, Leucothrinax, Hemithrinax, Zombia et Coccothrinax.
 </t>
@@ -546,9 +560,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013) :
 Cryosophila bartlettii R.J.Evans (1995)
 Cryosophila cookii Bartlett (1935)
 Cryosophila grayumii R.J.Evans (1995)
@@ -561,10 +577,10 @@
 Cryosophila stauracantha (Heynh.) R.J.Evans (1995)
 Cryosophila warscewiczii (H.Wendl.) Bartlett (1935)
 Cryosophila williamsii P.H.Allen (1953)
-Selon NCBI  (30 décembre 2013)[4] :
+Selon NCBI  (30 décembre 2013) :
 Cryosophila stauracantha
 Cryosophila warscewiczii
-Selon The Plant List            (30 décembre 2013)[5] :
+Selon The Plant List            (30 décembre 2013) :
 Cryosophila bartlettii R.J.Evans
 Cryosophila cookii Bartlett
 Cryosophila grayumii R.J.Evans
@@ -575,7 +591,7 @@
 Cryosophila stauracantha (Heynh.) R.J.Evans
 Cryosophila warscewiczii (H.Wendl.) Bartlett
 Cryosophila williamsii P.H.Allen
-Selon Tropicos                                           (30 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 Cryosophila albida Bartlett
 Cryosophila argentea Bartlett
 Cryosophila bartletii R. Evans
